--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H2">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I2">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J2">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.155747666666667</v>
+        <v>0.2662156666666667</v>
       </c>
       <c r="N2">
-        <v>3.467243</v>
+        <v>0.7986470000000001</v>
       </c>
       <c r="O2">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="P2">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="Q2">
-        <v>31.65398577817233</v>
+        <v>12.27736357653378</v>
       </c>
       <c r="R2">
-        <v>284.885872003551</v>
+        <v>110.496272188804</v>
       </c>
       <c r="S2">
-        <v>0.003961146517851957</v>
+        <v>0.0009410958015373687</v>
       </c>
       <c r="T2">
-        <v>0.003961146517851958</v>
+        <v>0.0009410958015373686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H3">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I3">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J3">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>812.3889770000001</v>
       </c>
       <c r="O3">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="P3">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="Q3">
-        <v>7416.656151386554</v>
+        <v>12488.61491522204</v>
       </c>
       <c r="R3">
-        <v>66749.905362479</v>
+        <v>112397.5342369984</v>
       </c>
       <c r="S3">
-        <v>0.928112557263758</v>
+        <v>0.9572888340780569</v>
       </c>
       <c r="T3">
-        <v>0.9281125572637581</v>
+        <v>0.9572888340780568</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H4">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I4">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J4">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2067996666666666</v>
+        <v>0.2067996666666667</v>
       </c>
       <c r="N4">
-        <v>0.6203989999999999</v>
+        <v>0.620399</v>
       </c>
       <c r="O4">
-        <v>0.0007598490704606445</v>
+        <v>0.000762340727132399</v>
       </c>
       <c r="P4">
-        <v>0.0007598490704606445</v>
+        <v>0.0007623407271323989</v>
       </c>
       <c r="Q4">
-        <v>5.663895239760333</v>
+        <v>9.537209913163112</v>
       </c>
       <c r="R4">
-        <v>50.975057157843</v>
+        <v>85.83488921846801</v>
       </c>
       <c r="S4">
-        <v>0.00070877389860729</v>
+        <v>0.0007310550145157773</v>
       </c>
       <c r="T4">
-        <v>0.00070877389860729</v>
+        <v>0.0007310550145157771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.403932</v>
       </c>
       <c r="I5">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J5">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.155747666666667</v>
+        <v>0.2662156666666667</v>
       </c>
       <c r="N5">
-        <v>3.467243</v>
+        <v>0.7986470000000001</v>
       </c>
       <c r="O5">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="P5">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="Q5">
-        <v>0.1556144888306667</v>
+        <v>0.03584434222266666</v>
       </c>
       <c r="R5">
-        <v>1.400530399476</v>
+        <v>0.322599080004</v>
       </c>
       <c r="S5">
-        <v>1.947343361049866E-05</v>
+        <v>2.747573594635203E-06</v>
       </c>
       <c r="T5">
-        <v>1.947343361049866E-05</v>
+        <v>2.747573594635203E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.403932</v>
       </c>
       <c r="I6">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J6">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>812.3889770000001</v>
       </c>
       <c r="O6">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="P6">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="Q6">
-        <v>36.46110047306267</v>
+        <v>36.46110047306266</v>
       </c>
       <c r="R6">
-        <v>328.1499042575641</v>
+        <v>328.149904257564</v>
       </c>
       <c r="S6">
-        <v>0.004562703799390588</v>
+        <v>0.002794849917144753</v>
       </c>
       <c r="T6">
-        <v>0.004562703799390588</v>
+        <v>0.002794849917144753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.403932</v>
       </c>
       <c r="I7">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J7">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2067996666666666</v>
+        <v>0.2067996666666667</v>
       </c>
       <c r="N7">
-        <v>0.6203989999999999</v>
+        <v>0.620399</v>
       </c>
       <c r="O7">
-        <v>0.0007598490704606445</v>
+        <v>0.000762340727132399</v>
       </c>
       <c r="P7">
-        <v>0.0007598490704606445</v>
+        <v>0.0007623407271323989</v>
       </c>
       <c r="Q7">
-        <v>0.02784433431866666</v>
+        <v>0.02784433431866667</v>
       </c>
       <c r="R7">
         <v>0.250599008868</v>
       </c>
       <c r="S7">
-        <v>3.484410737441753E-06</v>
+        <v>2.134349606945353E-06</v>
       </c>
       <c r="T7">
-        <v>3.484410737441753E-06</v>
+        <v>2.134349606945353E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>5.516982</v>
       </c>
       <c r="I8">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J8">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.155747666666667</v>
+        <v>0.2662156666666667</v>
       </c>
       <c r="N8">
-        <v>3.467243</v>
+        <v>0.7986470000000001</v>
       </c>
       <c r="O8">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="P8">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="Q8">
-        <v>2.125413024514</v>
+        <v>0.4895690137060001</v>
       </c>
       <c r="R8">
-        <v>19.128717220626</v>
+        <v>4.406121123354001</v>
       </c>
       <c r="S8">
-        <v>0.0002659719524754565</v>
+        <v>3.752689577769951E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002659719524754565</v>
+        <v>3.752689577769951E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.516982</v>
       </c>
       <c r="I9">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J9">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>812.3889770000001</v>
       </c>
       <c r="O9">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="P9">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="Q9">
         <v>497.9928181230461</v>
@@ -1004,10 +1004,10 @@
         <v>4481.935363107415</v>
       </c>
       <c r="S9">
-        <v>0.06231829796245281</v>
+        <v>0.03817260500675632</v>
       </c>
       <c r="T9">
-        <v>0.06231829796245281</v>
+        <v>0.03817260500675632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.516982</v>
       </c>
       <c r="I10">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J10">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2067996666666666</v>
+        <v>0.2067996666666667</v>
       </c>
       <c r="N10">
-        <v>0.6203989999999999</v>
+        <v>0.620399</v>
       </c>
       <c r="O10">
-        <v>0.0007598490704606445</v>
+        <v>0.000762340727132399</v>
       </c>
       <c r="P10">
-        <v>0.0007598490704606445</v>
+        <v>0.0007623407271323989</v>
       </c>
       <c r="Q10">
-        <v>0.380303346202</v>
+        <v>0.3803033462020001</v>
       </c>
       <c r="R10">
-        <v>3.422730115818</v>
+        <v>3.422730115818001</v>
       </c>
       <c r="S10">
-        <v>4.759076111591276E-05</v>
+        <v>2.915136300967636E-05</v>
       </c>
       <c r="T10">
-        <v>4.759076111591276E-05</v>
+        <v>2.915136300967635E-05</v>
       </c>
     </row>
   </sheetData>
